--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/tox_Dataharmonier/web/templates/miate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{312CE87D-C60B-3744-983C-44476127223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1669EAE4-A258-4596-A643-5F781EDB8276}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="13_ncr:1_{312CE87D-C60B-3744-983C-44476127223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B848EFBF-03F1-4C69-B2BC-246556C317E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="190">
   <si>
     <t>description</t>
   </si>
@@ -185,15 +185,9 @@
     <t>support_id</t>
   </si>
   <si>
-    <t>A textual entity that denotes an study.</t>
-  </si>
-  <si>
     <t>A textual entity that describes an investigation.</t>
   </si>
   <si>
-    <t>the name of the person bearing the data submission contact representative role</t>
-  </si>
-  <si>
     <t>email address of data submission contact</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>city of data submission contact</t>
   </si>
   <si>
-    <t>state of publication contact</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
     <t>AL, AK, AZ, AR, CA, CO, CT, DE, DC, FL, GA, HI, ID, IL, IN, IA, KS, KY, LA, ME, MD, MA, MI, MN, MS, MO, MT, NB*, *to NE in 1969, NV, NH, NJ, NM, NY, NC, ND, OH, OK, OR, PA, PR, RI, SC, SD, TN, TX, UT, VT, VA, WA, WV, WI, WY</t>
   </si>
   <si>
-    <t>Funding agency</t>
-  </si>
-  <si>
     <t>Funding identifier</t>
   </si>
   <si>
@@ -293,9 +281,6 @@
     <t>P42ES004911</t>
   </si>
   <si>
-    <t>OBI_0001615</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
   </si>
   <si>
     <t>A categorical value specification that specifies the type of study from a list of study types</t>
-  </si>
-  <si>
-    <t>OBI_0500000</t>
   </si>
   <si>
     <t>Study design</t>
@@ -459,12 +441,6 @@
     <t>test_article_administration_duration</t>
   </si>
   <si>
-    <t>euthanasia_time</t>
-  </si>
-  <si>
-    <t>experiment_start_time</t>
-  </si>
-  <si>
     <t>test_article_name</t>
   </si>
   <si>
@@ -528,9 +504,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>##:##</t>
-  </si>
-  <si>
     <t>ad libitum, restricted</t>
   </si>
   <si>
@@ -553,6 +526,117 @@
   </si>
   <si>
     <t>sample_identifier</t>
+  </si>
+  <si>
+    <t>obo:OBI_0001615</t>
+  </si>
+  <si>
+    <t>obo:OBI_0001622</t>
+  </si>
+  <si>
+    <t>A textual entity that denotes an investigation.</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C176230</t>
+  </si>
+  <si>
+    <t>The name of the person acting as a channel for communication between groups or on behalf of a group.</t>
+  </si>
+  <si>
+    <t>obo:IAO_0000708</t>
+  </si>
+  <si>
+    <t>A centrally registered identifier that is issued by ORCID (https://orcid.org/) and used to persistantly identify oneself as a human researcher or contributor.</t>
+  </si>
+  <si>
+    <t>^((?!\.)[\w-_.]*[^.])(@\w+)(\.\w+(\.\w+)?[^.\W])$</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C19711</t>
+  </si>
+  <si>
+    <t>Funding institution</t>
+  </si>
+  <si>
+    <t>A globally unique identifier for a biomedical article, as assigned by PubMed.</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C127797</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C46002</t>
+  </si>
+  <si>
+    <t>^\d{2}:\d{2}$</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C44278</t>
+  </si>
+  <si>
+    <t>^DTXSID\d{7}$</t>
+  </si>
+  <si>
+    <t>state of data submission contact</t>
+  </si>
+  <si>
+    <t>Cage identifier</t>
+  </si>
+  <si>
+    <t>ALPHA-dri, corn cob, wood shavings</t>
+  </si>
+  <si>
+    <t>obo:OBI_0500000</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0020005</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C45293</t>
+  </si>
+  <si>
+    <t>Elapsed time since birth when subjects were assigned to a study.</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C25150</t>
+  </si>
+  <si>
+    <t>experiment_start_zt</t>
+  </si>
+  <si>
+    <t>Experiment start Zeitgeber</t>
+  </si>
+  <si>
+    <t>obo:OBI_0001185</t>
+  </si>
+  <si>
+    <t>obo:PATO_0000047</t>
+  </si>
+  <si>
+    <t>obo:OBI_0000919</t>
+  </si>
+  <si>
+    <t>euthanasia_zt</t>
+  </si>
+  <si>
+    <t>obo:OBI_0000248</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C90377</t>
+  </si>
+  <si>
+    <t>obo:OBI_0000694</t>
+  </si>
+  <si>
+    <t>obo:PATO_0000146</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C88206</t>
+  </si>
+  <si>
+    <t>obo:XCO_0000459</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C90366</t>
   </si>
 </sst>
 </file>
@@ -949,12 +1033,12 @@
       <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -971,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1000,21 +1084,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="21" customWidth="1"/>
-    <col min="5" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="13" width="21" customWidth="1"/>
-    <col min="14" max="15" width="14.125" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="21" customWidth="1"/>
+    <col min="5" max="8" width="10.09765625" customWidth="1"/>
+    <col min="9" max="10" width="10" customWidth="1"/>
+    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" customWidth="1"/>
+    <col min="14" max="15" width="14.09765625" customWidth="1"/>
     <col min="16" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1070,70 +1159,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>155</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1142,33 +1240,39 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
+      <c r="P4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="R4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1176,28 +1280,40 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="L5" t="s">
+        <v>159</v>
+      </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
+      <c r="P5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="R5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1206,30 +1322,30 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1238,27 +1354,27 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R7">
         <v>5178842054</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1267,27 +1383,27 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1296,27 +1412,27 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1325,27 +1441,27 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R10">
         <v>48824</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1354,27 +1470,27 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1383,30 +1499,30 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="R12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1417,25 +1533,31 @@
       <c r="N13" t="b">
         <v>1</v>
       </c>
+      <c r="P13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="R13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1447,24 +1569,24 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1473,21 +1595,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1496,392 +1618,467 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
         <v>95</v>
       </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" t="s">
+        <v>141</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" t="s">
+        <v>142</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>147</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" t="s">
+        <v>171</v>
+      </c>
+      <c r="P37" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
-        <v>147</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>147</v>
-      </c>
-      <c r="K22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
-        <v>147</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" t="s">
-        <v>150</v>
-      </c>
-      <c r="O30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
       <c r="E38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1889,19 +2086,25 @@
       <c r="G39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1909,213 +2112,255 @@
       <c r="G40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" t="s">
+        <v>166</v>
+      </c>
+      <c r="P41" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+      <c r="P47" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="K48" t="s">
+        <v>145</v>
+      </c>
+      <c r="P48" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" t="s">
         <v>147</v>
       </c>
-      <c r="H41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="P52" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
         <v>121</v>
       </c>
-      <c r="E45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
         <v>122</v>
       </c>
-      <c r="E46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E54" t="s">
         <v>140</v>
-      </c>
-      <c r="E48" t="s">
-        <v>155</v>
-      </c>
-      <c r="K48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" t="s">
-        <v>155</v>
-      </c>
-      <c r="K52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" t="s">
-        <v>155</v>
-      </c>
-      <c r="K53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" t="s">
-        <v>148</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2124,184 +2369,214 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
         <v>123</v>
       </c>
-      <c r="C55" t="s">
-        <v>129</v>
-      </c>
       <c r="E55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" t="s">
+        <v>168</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" t="s">
+        <v>139</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" t="s">
+        <v>168</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E62" t="s">
+        <v>139</v>
+      </c>
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
         <v>133</v>
       </c>
-      <c r="E57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="E64" t="s">
+        <v>139</v>
+      </c>
+      <c r="K64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
         <v>134</v>
       </c>
-      <c r="E58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+      <c r="K65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
         <v>135</v>
       </c>
-      <c r="E59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62" t="s">
-        <v>147</v>
-      </c>
-      <c r="M62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" t="s">
-        <v>147</v>
-      </c>
-      <c r="K64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
-      </c>
-      <c r="K65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" t="s">
-        <v>143</v>
-      </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -2310,35 +2585,35 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" t="s">
         <v>144</v>
       </c>
-      <c r="E67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2346,8 +2621,30 @@
     <hyperlink ref="R6" r:id="rId1" xr:uid="{6730DB56-29A4-4368-838D-F7C90E1BA941}"/>
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{D67885DB-07C1-48D6-9182-296C8764ACAA}"/>
     <hyperlink ref="Q20" r:id="rId3" xr:uid="{62B2D977-4DB4-4ACB-B1F4-86B39E729F12}"/>
+    <hyperlink ref="Q2" r:id="rId4" xr:uid="{3E4ADA5D-25DC-4FCF-9AD6-84FFBF29DD54}"/>
+    <hyperlink ref="Q4" r:id="rId5" xr:uid="{77C6100B-CB8B-45BC-B9F4-81B72C4CDBBE}"/>
+    <hyperlink ref="Q5" r:id="rId6" xr:uid="{983294F6-1794-48BA-A4EE-69E1E5B73B29}"/>
+    <hyperlink ref="Q13" r:id="rId7" xr:uid="{5F4DB769-A8DA-4A96-B09C-E6FF792A6727}"/>
+    <hyperlink ref="Q17" r:id="rId8" xr:uid="{CE8CEF44-F1F7-4EC2-8E60-7E851335A50D}"/>
+    <hyperlink ref="Q18" r:id="rId9" xr:uid="{5537B217-12A2-4369-87D2-C5E2A4AC65D4}"/>
+    <hyperlink ref="Q19" r:id="rId10" xr:uid="{601611FE-DEAE-44CA-B260-AD4FF56D97E4}"/>
+    <hyperlink ref="Q52" r:id="rId11" xr:uid="{ECB42EBD-C556-4586-BBCA-16A58E127BF1}"/>
+    <hyperlink ref="Q22" r:id="rId12" location="BAO_0020005" xr:uid="{37B5E50D-20D7-44B7-BF1B-86D0E401725C}"/>
+    <hyperlink ref="Q23" r:id="rId13" xr:uid="{DF0D288C-738F-4EAF-8911-7FEBFED5730E}"/>
+    <hyperlink ref="Q26" r:id="rId14" xr:uid="{E4FCB884-4466-4FA3-98B9-00D3E4577E54}"/>
+    <hyperlink ref="Q30" r:id="rId15" xr:uid="{96FFD262-981A-4D2A-8B92-2223FADC171E}"/>
+    <hyperlink ref="Q29" r:id="rId16" xr:uid="{498AD441-F42E-48F4-9FE0-8E0EDAC27CB2}"/>
+    <hyperlink ref="Q34" r:id="rId17" xr:uid="{3F93E517-A771-4277-B1C4-0D484378F3C6}"/>
+    <hyperlink ref="Q45" r:id="rId18" xr:uid="{5A4F09E9-4852-4FEA-8962-95A99CB5321D}"/>
+    <hyperlink ref="Q48" r:id="rId19" xr:uid="{4C5D9327-68A9-4796-890F-96EEDD7AB960}"/>
+    <hyperlink ref="Q47" r:id="rId20" xr:uid="{D1DF37D3-4D5A-462E-8C75-798FDCCDA9E3}"/>
+    <hyperlink ref="Q39" r:id="rId21" xr:uid="{8752855E-5008-493E-8E83-E2F603B0407D}"/>
+    <hyperlink ref="Q40" r:id="rId22" xr:uid="{6613030B-8CAB-4FB8-AF4D-7A3FC2B4FE5F}"/>
+    <hyperlink ref="Q41" r:id="rId23" xr:uid="{B9400ADF-E07A-407E-8FA2-0F94CB143507}"/>
+    <hyperlink ref="Q37" r:id="rId24" xr:uid="{19AAC4D7-5401-4799-9C07-9F3476E72451}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/ToxRSCat/templates/miate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="13_ncr:1_{312CE87D-C60B-3744-983C-44476127223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B848EFBF-03F1-4C69-B2BC-246556C317E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F07FBE-63F8-B74F-8768-550F1EAF52EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="191">
   <si>
     <t>description</t>
   </si>
@@ -588,9 +588,6 @@
     <t>obo:OBI_0500000</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0020005</t>
-  </si>
-  <si>
     <t>obo:NCIT_C45293</t>
   </si>
   <si>
@@ -637,6 +634,12 @@
   </si>
   <si>
     <t>obo:NCIT_C90366</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao/</t>
+  </si>
+  <si>
+    <t>bao:BAO_0020005</t>
   </si>
 </sst>
 </file>
@@ -1033,12 +1036,12 @@
       <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1084,26 +1087,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="21" customWidth="1"/>
-    <col min="5" max="8" width="10.09765625" customWidth="1"/>
+    <col min="5" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="10" width="10" customWidth="1"/>
     <col min="11" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" customWidth="1"/>
-    <col min="14" max="15" width="14.09765625" customWidth="1"/>
-    <col min="16" max="18" width="21" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="45.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>5178842054</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>48824</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1508,7 +1514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -1767,11 +1773,14 @@
       <c r="K22" t="s">
         <v>83</v>
       </c>
+      <c r="P22" t="s">
+        <v>190</v>
+      </c>
       <c r="Q22" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -1791,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1814,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1842,16 +1851,16 @@
         <v>140</v>
       </c>
       <c r="L26" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" t="s">
         <v>175</v>
-      </c>
-      <c r="P26" t="s">
-        <v>176</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1873,16 +1882,16 @@
         <v>105</v>
       </c>
       <c r="C28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" t="s">
         <v>177</v>
       </c>
-      <c r="D28" t="s">
-        <v>178</v>
-      </c>
       <c r="E28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s">
         <v>141</v>
@@ -1902,13 +1911,13 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s">
         <v>142</v>
@@ -1928,13 +1937,13 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -1962,7 +1971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -1970,13 +1979,13 @@
         <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -1987,19 +1996,19 @@
         <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
         <v>143</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2047,13 +2056,13 @@
         <v>171</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -2087,13 +2096,13 @@
         <v>50</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2113,13 +2122,13 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2136,13 +2145,13 @@
         <v>166</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -2198,13 +2207,13 @@
         <v>139</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2232,13 +2241,13 @@
         <v>139</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2255,13 +2264,13 @@
         <v>145</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -2397,7 +2406,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -2531,7 +2540,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -2542,13 +2551,13 @@
         <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K64" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -2559,13 +2568,13 @@
         <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K65" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -2588,7 +2597,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -2629,7 +2638,7 @@
     <hyperlink ref="Q18" r:id="rId9" xr:uid="{5537B217-12A2-4369-87D2-C5E2A4AC65D4}"/>
     <hyperlink ref="Q19" r:id="rId10" xr:uid="{601611FE-DEAE-44CA-B260-AD4FF56D97E4}"/>
     <hyperlink ref="Q52" r:id="rId11" xr:uid="{ECB42EBD-C556-4586-BBCA-16A58E127BF1}"/>
-    <hyperlink ref="Q22" r:id="rId12" location="BAO_0020005" xr:uid="{37B5E50D-20D7-44B7-BF1B-86D0E401725C}"/>
+    <hyperlink ref="Q22" r:id="rId12" xr:uid="{37B5E50D-20D7-44B7-BF1B-86D0E401725C}"/>
     <hyperlink ref="Q23" r:id="rId13" xr:uid="{DF0D288C-738F-4EAF-8911-7FEBFED5730E}"/>
     <hyperlink ref="Q26" r:id="rId14" xr:uid="{E4FCB884-4466-4FA3-98B9-00D3E4577E54}"/>
     <hyperlink ref="Q30" r:id="rId15" xr:uid="{96FFD262-981A-4D2A-8B92-2223FADC171E}"/>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F07FBE-63F8-B74F-8768-550F1EAF52EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073EDCB3-5698-C443-836E-98B6EB55FE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>0000-0002-6822-4962</t>
   </si>
   <si>
-    <t>\b\d{4}-\d{4}-\d{4}-\d{3}[\dX]\b</t>
-  </si>
-  <si>
     <t>naultran@msu.edu</t>
   </si>
   <si>
@@ -640,6 +637,9 @@
   </si>
   <si>
     <t>bao:BAO_0020005</t>
+  </si>
+  <si>
+    <t>^\d{4}-\d{4}-\d{4}-\d{4}$</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="31" customWidth="1"/>
+    <col min="1" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1088,10 +1090,10 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1101,7 @@
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="21" customWidth="1"/>
     <col min="5" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
     <col min="9" max="10" width="10" customWidth="1"/>
     <col min="11" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
@@ -1179,22 +1181,22 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1211,16 +1213,16 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
         <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1237,7 +1239,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1246,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s">
         <v>62</v>
@@ -1275,10 +1277,10 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1287,16 +1289,16 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s">
         <v>63</v>
@@ -1316,10 +1318,10 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1334,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1351,7 +1353,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1380,7 +1382,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1392,7 +1394,7 @@
         <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1409,7 +1411,7 @@
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1421,7 +1423,7 @@
         <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1438,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1467,7 +1469,7 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1479,7 +1481,7 @@
         <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1496,7 +1498,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1508,7 +1510,7 @@
         <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R12" t="s">
         <v>57</v>
@@ -1525,10 +1527,10 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1540,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1563,7 +1565,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1575,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1583,16 +1585,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1606,16 +1608,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1629,16 +1631,16 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1647,177 +1649,177 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" t="s">
         <v>163</v>
       </c>
-      <c r="P17" t="s">
-        <v>164</v>
-      </c>
       <c r="Q17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" t="s">
-        <v>83</v>
-      </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -1825,269 +1827,269 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
         <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
         <v>105</v>
       </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" t="s">
         <v>174</v>
       </c>
-      <c r="P26" t="s">
-        <v>175</v>
-      </c>
       <c r="Q26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
         <v>176</v>
       </c>
-      <c r="D28" t="s">
-        <v>177</v>
-      </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2096,24 +2098,24 @@
         <v>50</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2122,194 +2124,194 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
         <v>117</v>
       </c>
-      <c r="C50" t="s">
-        <v>118</v>
-      </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2320,56 +2322,56 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
+        <v>145</v>
+      </c>
+      <c r="K52" t="s">
         <v>146</v>
       </c>
-      <c r="K52" t="s">
-        <v>147</v>
-      </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2380,47 +2382,47 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -2431,16 +2433,16 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -2451,19 +2453,19 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2474,16 +2476,16 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
         <v>94</v>
       </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -2494,30 +2496,30 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M62" t="b">
         <v>1</v>
@@ -2528,64 +2530,64 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -2594,35 +2596,35 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073EDCB3-5698-C443-836E-98B6EB55FE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEDCA75-B862-1A41-82E7-F93BBF58C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="0" yWindow="1360" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -1090,20 +1090,23 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="3" max="4" width="21" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="47" customWidth="1"/>
-    <col min="9" max="10" width="10" customWidth="1"/>
-    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="15" width="14.1640625" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEDCA75-B862-1A41-82E7-F93BBF58C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{2BEDCA75-B862-1A41-82E7-F93BBF58C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5146E3EE-EB34-4DD0-8F4D-CC39C249991D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1360" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="202">
   <si>
     <t>description</t>
   </si>
@@ -242,9 +242,6 @@
     <t>MI</t>
   </si>
   <si>
-    <t>AL, AK, AZ, AR, CA, CO, CT, DE, DC, FL, GA, HI, ID, IL, IN, IA, KS, KY, LA, ME, MD, MA, MI, MN, MS, MO, MT, NB*, *to NE in 1969, NV, NH, NJ, NM, NY, NC, ND, OH, OK, OR, PA, PR, RI, SC, SD, TN, TX, UT, VT, VA, WA, WV, WI, WY</t>
-  </si>
-  <si>
     <t>Funding identifier</t>
   </si>
   <si>
@@ -299,13 +296,6 @@
     <t>Study type</t>
   </si>
   <si>
-    <t>dose response design, case control design
-cross sectional design, genetic modification design, sex design, time series design</t>
-  </si>
-  <si>
-    <t>Teratology,Short term,Long term,Bacterial mutagenicity,Drosophila germ cell mutagenicity,In vitro micronucleus,In vivo alkaline comet assay,Mammalian cell cytogenetics,Mammalian cell mutagenicity,Micronucleus,Rodent cytogenetics,ADME,Immunotoxicology,Nematode,RACB,Tox21 - Phase II,Toxicogenomics,Toxicokinetics,Zebrafish</t>
-  </si>
-  <si>
     <t>Organism</t>
   </si>
   <si>
@@ -315,12 +305,6 @@
     <t>Experimental setting</t>
   </si>
   <si>
-    <t>in vivo, ex vivo</t>
-  </si>
-  <si>
-    <t>Homo sapiens, Mus musculus, Rattus norvegicus, Drosophila melanogaster, Danio rerio, Xenopus laevis</t>
-  </si>
-  <si>
     <t>Publication</t>
   </si>
   <si>
@@ -414,9 +398,6 @@
     <t>feed_name</t>
   </si>
   <si>
-    <t>feed_source</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -489,39 +470,12 @@
     <t>integer</t>
   </si>
   <si>
-    <t>male, female</t>
-  </si>
-  <si>
-    <t>C57BL/6NCrl, C57BL/6J, 129/Sv, FVB/N, BALB/cJ, C3H/HeJ, Sprague-Dawley, Dahl SS</t>
-  </si>
-  <si>
-    <t>Carbon dioxide asphyxiation, Cervical dislocation</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
-    <t>ad libitum, restricted</t>
-  </si>
-  <si>
     <t>enum</t>
   </si>
   <si>
-    <t>milligram per kilogram, microgram per kilogram, milligram per kilogram per day, microgram per kilogram per day</t>
-  </si>
-  <si>
-    <t>Administration via Cytapheresis, Administration via Fistula, Administration via Stoma, Auricular Route of Administration, Combination Route of Administration, Concomitant Medication Route of Administration, Dental Route of Administration, Dietary Route of Administration, Drop Instillation Route of Administration, Electro-osmosis Route of Administration, Endotracheal Route of Administration, Enteral Route of Administration, Epilesional Route of Administration, Exposure Route of Administration, Exposure as Collected Route of Administration, External Route of Administration, Extracorporeal Circulation Route of Administration, Genitourinary Route of Administration, Immersion Route of Exposure, In Beehive Route of Administration, In Vitro Route of Administration, Inhalation Route of Administration, Injection Route of Administration, Intestinal Route of Administration, Intracavernous Route of Administration, Intracavitary Route of Administration, Intracholangiopancreatic Route of Administration, Intracochlear Route of Administration, Intraglandular Route of Administration, Intrajejunal Route of Administration, Intralesional Route of Administration, Intramandibular Route of Administration, Intrapalatal Route of Administration, Intraparenchymal Route of Administration, Intrasurgical Site Route of Administration, Intrathalamic Route of Administration, Intraurethral Route of Administration, Intravaginal Route of Administration, Iontophoresis Route of Administration, Laryngeal Route of Administration, Laryngotracheal Route of Administration, Microdialysis Route of Administration, Mucosal Route of Administration, Nasal Route of Administration, Oculonasal Route of Administration, Ophthalmic Route of Administration, Oral Gavage Route of Administration, Oral Route of Administration, Other Route of Administration, Parenteral Route of Administration</t>
-  </si>
-  <si>
-    <t>Abdomen, Abdominal Wall, Acetabulum, Adenoid, Adipose, Adrenal, Alveolar Ridge, Amniotic Fluid, Ampulla Of Vater, Anal Sphincter, Ankle, Anorectum, Antecubital Fossa, Antrum, Anus, Aorta, Aortic Body, Appendix, Aqueous Fluid, Arm, Artery, Ascending Colon, Ascending Colon Hepatic Flexure, Auditory Canal, Autonomic Nervous System, Axilla, Back, Bile Duct, Bladder, Blood, Blood Vessel, Bone, Bone Marrow, Bowel, Brain, Brain Stem, Breast, Broad Ligament, Bronchiole, Bronchus, Brow, Buccal Cavity, Buccal Mucosa, Buttock, Calf, Capillary, Cardia, Carina, Carotid Artery, Carotid Body, Cartilage, Cecum, Cell-Line, Central Nervous System, Cerebellum, Cerebral Cortex, Cerebrospinal Fluid, Cerebrum, Cervical Spine, Cervix, Chest, Chest Wall, Chin, Clavicle, Clitoris, Colon, Colon - Mucosa Only, Common Duct, Conjunctiva, Connective Tissue, Dermal, Descending Colon, Diaphragm, Duodenum, Ear, Ear Canal, Ear, Pinna (External), Effusion, Elbow, Endocrine Gland, Epididymis, Epidural Space, Esophagogastric Junction, Esophagus, Esophagus - Mucosa Only, Eye, Fallopian Tube, Femoral Artery, Femoral Vein, Femur, Fibroblasts, Fibula, Finger, Floor Of Mouth, Fluid, Foot, Forearm, Forehead, Foreskin, Frontal Cortex, Frontal Lobe, Fundus Of Stomach, Gallbladder, Ganglia, Gastroesophageal Junction, Gastrointestinal Tract, Groin, Gum, Hand, Hard Palate, Head &amp; Neck, Head - Face Or Neck, Nos, Heart, Hepatic, Hepatic Duct, Hepatic Vein, Hip, Hippocampus, Humerus, Hypopharynx, Ileum, Ilium, Index Finger, Ischium, Islet Cells, Jaw, Jejunum, Joint, Kidney, Knee, Lacrimal Gland, Large Bowel, Laryngopharynx, Larynx, Leg, Leptomeninges, Ligament, Lip, Liver, Lumbar Spine, Lung, Lymph Node, Lymph Node(s) Axilla, Lymph Node(s) Cervical, Lymph Node(s) Distant, Lymph Node(s) Epitrochlear, Lymph Node(s) Femoral, Lymph Node(s) Hilar, Lymph Node(s) Iliac-Common, Lymph Node(s) Iliac-External, Lymph Node(s) Inguinal, Lymph Node(s) Internal Mammary, Lymph Node(s) Mammary, Lymph Node(s) Mesenteric, Lymph Node(s) Occipital, Lymph Node(s) Paraaortic, Lymph Node(s) Parotid, Lymph Node(s) Pelvic, Lymph Node(s) Popliteal, Lymph Node(s) Regional, Lymph Node(s) Retroperitoneal, Lymph Node(s) Scalene, Lymph Node(s) Splenic, Lymph Node(s) Subclavicular, Lymph Node(s) Submandibular, Lymph Node(s) Supraclavicular, Lymph Nodes(s) Mediastinal, Mandible, Maxilla, Mediastinal Soft Tissue, Mediastinum, Mesentery, Mesothelium, Middle Finger, Mitochondria, Muscle, Nails, Nasal Cavity, Nasal Soft Tissue, Nasopharynx, Neck, Nerve, Nerve(s) Cranial, Occipital Cortex, Ocular Orbits, Omentum, Oral Cavity, Oral Cavity - Mucosa Only, Oropharynx, Other, Ovary, Palate, Pancreas, Paraspinal Ganglion, Parathyroid, Parotid Gland, Patella, Pelvis, Penis, Pericardium, Periorbital Soft Tissue, Peritoneal Cavity, Peritoneum, Pharynx, Pineal, Pineal Gland, Pituitary Gland, Placenta, Pleura, Popliteal Fossa, Prostate, Pylorus, Rectosigmoid Junction, Rectum, Retina, Retro-Orbital Region, Retroperitoneum, Rib, Ring Finger, Round Ligament, Sacrum, Salivary Gland, Scalp, Scapula, Sciatic Nerve, Scrotum, Seminal Vesicle, Shoulder, Sigmoid Colon, Sinus, Sinus(es), Maxillary, Skeletal Muscle, Skin, Skull, Small Bowel, Small Bowel - Mucosa Only, Small Finger, Soft Tissue, Spinal Column, Spinal Cord, Spleen, Splenic Flexure, Sternum, Stomach, Stomach - Mucosa Only, Subcutaneous Tissue, Synovium, Temporal Cortex, Tendon, Testis, Thigh, Thoracic Spine, Thorax, Throat, Thumb, Thymus, Thyroid, Tibia, Tongue, Tonsil, Tonsil (Pharyngeal), Trachea / Major Bronchi, Transverse Colon, Trunk, Umbilical Cord, Ureter, Urethra, Urinary Tract, Uterus, Uvula, Vagina, Vas Deferens, Vein, Venous, Vertebra, Vulva, White Blood Cells, Wrist</t>
-  </si>
-  <si>
-    <t>Abdomino-perineal Resection of Rectum, Anterior Resection of Rectum, Aspirate, Biopsy, Blood Draw, Bone Marrow Aspirate, Core Biopsy, Cystectomy, Endo Rectal Tumor Resection, Endoscopic Biopsy, Endoscopic Mucosal Resection (EMR), Enucleation, Excisional Biopsy, Fine Needle Aspiration, Full Hysterectomy, Gross Total Resection, Hand Assisted Laparoscopic Radical Nephrectomy, Hysterectomy NOS, Incisional Biopsy, Indeterminant, Laparoscopic Biopsy, Laparoscopic Partial Nephrectomy, Laparoscopic Radical Nephrectomy, Laparoscopic Radical Prostatectomy with Robotics, Laparoscopic Radical Prostatectomy without Robotics, Left Hemicolectomy, Lobectomy, Local Resection (Exoresection; wall resection), Lumpectomy, Modified Radical Mastectomy, Needle Biopsy, Open Craniotomy, Open Partial Nephrectomy, Open Radical Nephrectomy, Open Radical Prostatectomy, Orchiectomy, Other, Other Surgical Resection, Pan-Procto Colectomy, Pneumonectomy, Right Hemicolectomy, Sigmoid Colectomy, Simple Mastectomy, Subtotal Resection, Surgical Resection, Thoracoscopic Biopsy, Total Colectomy, Total Mastectomy, Transplant, Transurethral resection (TURBT), Transverse Colectomy, Tumor Resection, Wedge Resection</t>
-  </si>
-  <si>
-    <t>Cryopreserved, FFPE, Fresh, OCT, Snap Frozen, Frozen</t>
-  </si>
-  <si>
     <t>sample_identifier</t>
   </si>
   <si>
@@ -570,18 +524,12 @@
     <t>obo:NCIT_C44278</t>
   </si>
   <si>
-    <t>^DTXSID\d{7}$</t>
-  </si>
-  <si>
     <t>state of data submission contact</t>
   </si>
   <si>
     <t>Cage identifier</t>
   </si>
   <si>
-    <t>ALPHA-dri, corn cob, wood shavings</t>
-  </si>
-  <si>
     <t>obo:OBI_0500000</t>
   </si>
   <si>
@@ -639,7 +587,92 @@
     <t>bao:BAO_0020005</t>
   </si>
   <si>
-    <t>^\d{4}-\d{4}-\d{4}-\d{4}$</t>
+    <t>AL;AK;AZ;AR;CA;CO;CT;DE;DC;FL;GA;HI;ID;IL;IN;IA;KS;KY;LA;ME;MD;MA;MI;MN;MS;MO;MT;NB*;*to NE in 1969;NV;NH;NJ;NM;NY;NC;ND;OH;OK;OR;PA;PR;RI;SC;SD;TN;TX;UT;VT;VA;WA;WV;WI;WY</t>
+  </si>
+  <si>
+    <t>dose response design;case control design
+cross sectional design;genetic modification design;sex design;time series design</t>
+  </si>
+  <si>
+    <t>in vivo;ex vivo</t>
+  </si>
+  <si>
+    <t>Homo sapiens;Mus musculus;Rattus norvegicus;Drosophila melanogaster;Danio rerio;Xenopus laevis</t>
+  </si>
+  <si>
+    <t>male;female</t>
+  </si>
+  <si>
+    <t>C57BL/6NCrl;C57BL/6J;129/Sv;FVB/N;BALB/cJ;C3H/HeJ;Sprague-Dawley;Dahl SS</t>
+  </si>
+  <si>
+    <t>Carbon dioxide asphyxiation;Cervical dislocation</t>
+  </si>
+  <si>
+    <t>ALPHA-dri;corn cob;wood shavings</t>
+  </si>
+  <si>
+    <t>ad libitum;restricted</t>
+  </si>
+  <si>
+    <t>milligram per kilogram;microgram per kilogram;milligram per kilogram per day;microgram per kilogram per day</t>
+  </si>
+  <si>
+    <t>Administration via Cytapheresis;Administration via Fistula;Administration via Stoma;Auricular Route of Administration;Combination Route of Administration;Concomitant Medication Route of Administration;Dental Route of Administration;Dietary Route of Administration;Drop Instillation Route of Administration;Electro-osmosis Route of Administration;Endotracheal Route of Administration;Enteral Route of Administration;Epilesional Route of Administration;Exposure Route of Administration;Exposure as Collected Route of Administration;External Route of Administration;Extracorporeal Circulation Route of Administration;Genitourinary Route of Administration;Immersion Route of Exposure;In Beehive Route of Administration;In Vitro Route of Administration;Inhalation Route of Administration;Injection Route of Administration;Intestinal Route of Administration;Intracavernous Route of Administration;Intracavitary Route of Administration;Intracholangiopancreatic Route of Administration;Intracochlear Route of Administration;Intraglandular Route of Administration;Intrajejunal Route of Administration;Intralesional Route of Administration;Intramandibular Route of Administration;Intrapalatal Route of Administration;Intraparenchymal Route of Administration;Intrasurgical Site Route of Administration;Intrathalamic Route of Administration;Intraurethral Route of Administration;Intravaginal Route of Administration;Iontophoresis Route of Administration;Laryngeal Route of Administration;Laryngotracheal Route of Administration;Microdialysis Route of Administration;Mucosal Route of Administration;Nasal Route of Administration;Oculonasal Route of Administration;Ophthalmic Route of Administration;Oral Gavage Route of Administration;Oral Route of Administration;Other Route of Administration;Parenteral Route of Administration</t>
+  </si>
+  <si>
+    <t>Abdomen;Abdominal Wall;Acetabulum;Adenoid;Adipose;Adrenal;Alveolar Ridge;Amniotic Fluid;Ampulla Of Vater;Anal Sphincter;Ankle;Anorectum;Antecubital Fossa;Antrum;Anus;Aorta;Aortic Body;Appendix;Aqueous Fluid;Arm;Artery;Ascending Colon;Ascending Colon Hepatic Flexure;Auditory Canal;Autonomic Nervous System;Axilla;Back;Bile Duct;Bladder;Blood;Blood Vessel;Bone;Bone Marrow;Bowel;Brain;Brain Stem;Breast;Broad Ligament;Bronchiole;Bronchus;Brow;Buccal Cavity;Buccal Mucosa;Buttock;Calf;Capillary;Cardia;Carina;Carotid Artery;Carotid Body;Cartilage;Cecum;Cell-Line;Central Nervous System;Cerebellum;Cerebral Cortex;Cerebrospinal Fluid;Cerebrum;Cervical Spine;Cervix;Chest;Chest Wall;Chin;Clavicle;Clitoris;Colon;Colon - Mucosa Only;Common Duct;Conjunctiva;Connective Tissue;Dermal;Descending Colon;Diaphragm;Duodenum;Ear;Ear Canal;Ear;Pinna (External);Effusion;Elbow;Endocrine Gland;Epididymis;Epidural Space;Esophagogastric Junction;Esophagus;Esophagus - Mucosa Only;Eye;Fallopian Tube;Femoral Artery;Femoral Vein;Femur;Fibroblasts;Fibula;Finger;Floor Of Mouth;Fluid;Foot;Forearm;Forehead;Foreskin;Frontal Cortex;Frontal Lobe;Fundus Of Stomach;Gallbladder;Ganglia;Gastroesophageal Junction;Gastrointestinal Tract;Groin;Gum;Hand;Hard Palate;Head &amp; Neck;Head - Face Or Neck;Nos;Heart;Hepatic;Hepatic Duct;Hepatic Vein;Hip;Hippocampus;Humerus;Hypopharynx;Ileum;Ilium;Index Finger;Ischium;Islet Cells;Jaw;Jejunum;Joint;Kidney;Knee;Lacrimal Gland;Large Bowel;Laryngopharynx;Larynx;Leg;Leptomeninges;Ligament;Lip;Liver;Lumbar Spine;Lung;Lymph Node;Lymph Node(s) Axilla;Lymph Node(s) Cervical;Lymph Node(s) Distant;Lymph Node(s) Epitrochlear;Lymph Node(s) Femoral;Lymph Node(s) Hilar;Lymph Node(s) Iliac-Common;Lymph Node(s) Iliac-External;Lymph Node(s) Inguinal;Lymph Node(s) Internal Mammary;Lymph Node(s) Mammary;Lymph Node(s) Mesenteric;Lymph Node(s) Occipital;Lymph Node(s) Paraaortic;Lymph Node(s) Parotid;Lymph Node(s) Pelvic;Lymph Node(s) Popliteal;Lymph Node(s) Regional;Lymph Node(s) Retroperitoneal;Lymph Node(s) Scalene;Lymph Node(s) Splenic;Lymph Node(s) Subclavicular;Lymph Node(s) Submandibular;Lymph Node(s) Supraclavicular;Lymph Nodes(s) Mediastinal;Mandible;Maxilla;Mediastinal Soft Tissue;Mediastinum;Mesentery;Mesothelium;Middle Finger;Mitochondria;Muscle;Nails;Nasal Cavity;Nasal Soft Tissue;Nasopharynx;Neck;Nerve;Nerve(s) Cranial;Occipital Cortex;Ocular Orbits;Omentum;Oral Cavity;Oral Cavity - Mucosa Only;Oropharynx;Other;Ovary;Palate;Pancreas;Paraspinal Ganglion;Parathyroid;Parotid Gland;Patella;Pelvis;Penis;Pericardium;Periorbital Soft Tissue;Peritoneal Cavity;Peritoneum;Pharynx;Pineal;Pineal Gland;Pituitary Gland;Placenta;Pleura;Popliteal Fossa;Prostate;Pylorus;Rectosigmoid Junction;Rectum;Retina;Retro-Orbital Region;Retroperitoneum;Rib;Ring Finger;Round Ligament;Sacrum;Salivary Gland;Scalp;Scapula;Sciatic Nerve;Scrotum;Seminal Vesicle;Shoulder;Sigmoid Colon;Sinus;Sinus(es);Maxillary;Skeletal Muscle;Skin;Skull;Small Bowel;Small Bowel - Mucosa Only;Small Finger;Soft Tissue;Spinal Column;Spinal Cord;Spleen;Splenic Flexure;Sternum;Stomach;Stomach - Mucosa Only;Subcutaneous Tissue;Synovium;Temporal Cortex;Tendon;Testis;Thigh;Thoracic Spine;Thorax;Throat;Thumb;Thymus;Thyroid;Tibia;Tongue;Tonsil;Tonsil (Pharyngeal);Trachea / Major Bronchi;Transverse Colon;Trunk;Umbilical Cord;Ureter;Urethra;Urinary Tract;Uterus;Uvula;Vagina;Vas Deferens;Vein;Venous;Vertebra;Vulva;White Blood Cells;Wrist</t>
+  </si>
+  <si>
+    <t>Abdomino-perineal Resection of Rectum;Anterior Resection of Rectum;Aspirate;Biopsy;Blood Draw;Bone Marrow Aspirate;Core Biopsy;Cystectomy;Endo Rectal Tumor Resection;Endoscopic Biopsy;Endoscopic Mucosal Resection (EMR);Enucleation;Excisional Biopsy;Fine Needle Aspiration;Full Hysterectomy;Gross Total Resection;Hand Assisted Laparoscopic Radical Nephrectomy;Hysterectomy NOS;Incisional Biopsy;Indeterminant;Laparoscopic Biopsy;Laparoscopic Partial Nephrectomy;Laparoscopic Radical Nephrectomy;Laparoscopic Radical Prostatectomy with Robotics;Laparoscopic Radical Prostatectomy without Robotics;Left Hemicolectomy;Lobectomy;Local Resection (Exoresection; wall resection);Lumpectomy;Modified Radical Mastectomy;Needle Biopsy;Open Craniotomy;Open Partial Nephrectomy;Open Radical Nephrectomy;Open Radical Prostatectomy;Orchiectomy;Other;Other Surgical Resection;Pan-Procto Colectomy;Pneumonectomy;Right Hemicolectomy;Sigmoid Colectomy;Simple Mastectomy;Subtotal Resection;Surgical Resection;Thoracoscopic Biopsy;Total Colectomy;Total Mastectomy;Transplant;Transurethral resection (TURBT);Transverse Colectomy;Tumor Resection;Wedge Resection</t>
+  </si>
+  <si>
+    <t>Cryopreserved;FFPE;Fresh;OCT;Snap Frozen;Frozen</t>
+  </si>
+  <si>
+    <t>Teratology;Short term;Long term;Bacterial mutagenicity;Drosophila germ cell mutagenicity;In vitro micronucleus;In vivo alkaline comet assay;Mammalian cell cytogenetics;Mammalian cell mutagenicity;Micronucleus;Rodent cytogenetics;ADME;Immunotoxicology;Nematode;RACB;Tox21 - Phase II;Toxicogenomics;Toxicokinetics;Zebrafish</t>
+  </si>
+  <si>
+    <t>^DTXSID\d{1,17}$</t>
+  </si>
+  <si>
+    <t>sample weight (mg)</t>
+  </si>
+  <si>
+    <t>sample volume (ml)</t>
+  </si>
+  <si>
+    <t>housing_change_date</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>Humidiity (%)</t>
+  </si>
+  <si>
+    <t>provenance</t>
+  </si>
+  <si>
+    <t>NIEHS;NIDDK;NHGRI;NHLBI;NIAID;NLM;Superfund Basic Research Program</t>
+  </si>
+  <si>
+    <t>^\w{4}-\w{4}-\w{4}-\w{4}$</t>
+  </si>
+  <si>
+    <t>^([+]?\d{1,2}[-\s]?|)\d{3}[-\s]?\d{3}[-\s]?\d{4}$</t>
+  </si>
+  <si>
+    <t>\d{5}(?:-?\d{4})?</t>
+  </si>
+  <si>
+    <t>^\d{5,20}</t>
+  </si>
+  <si>
+    <t>Administration volume (mL)</t>
+  </si>
+  <si>
+    <t>feed_vendor</t>
   </si>
 </sst>
 </file>
@@ -692,10 +725,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1036,14 +1072,14 @@
       <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="60.5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1087,34 +1123,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="7" width="10.1640625" customWidth="1"/>
+    <col min="5" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="47" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="15" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="15" width="14.125" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="45.33203125" customWidth="1"/>
+    <col min="17" max="17" width="45.375" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1170,12 +1206,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1184,30 +1220,30 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>138</v>
       </c>
-      <c r="L2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>153</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1216,24 +1252,24 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
         <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1242,7 +1278,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1251,27 +1287,27 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1280,10 +1316,10 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1292,27 +1328,27 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1321,10 +1357,10 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1339,15 +1375,15 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1356,7 +1392,10 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="H7" t="s">
+        <v>197</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1371,12 +1410,12 @@
         <v>5178842054</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -1385,7 +1424,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1397,15 +1436,15 @@
         <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1414,7 +1453,7 @@
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1426,15 +1465,15 @@
         <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1443,7 +1482,10 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="H10" t="s">
+        <v>198</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1458,12 +1500,12 @@
         <v>48824</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -1472,7 +1514,7 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1484,15 +1526,15 @@
         <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1501,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1510,30 +1552,30 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="L12" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="R12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1541,34 +1583,37 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="s">
+        <v>195</v>
+      </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1580,24 +1625,27 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="H15" t="s">
+        <v>199</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1606,21 +1654,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1629,470 +1677,482 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
         <v>88</v>
       </c>
-      <c r="E17" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" t="s">
         <v>162</v>
       </c>
-      <c r="P17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="Q34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" t="s">
-        <v>138</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
         <v>94</v>
       </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" t="s">
+        <v>180</v>
+      </c>
+      <c r="P37" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="L26" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
-      <c r="K29" t="s">
-        <v>140</v>
-      </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" t="s">
-        <v>141</v>
-      </c>
-      <c r="O30" t="b">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" t="s">
-        <v>142</v>
-      </c>
-      <c r="P34" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="s">
-        <v>145</v>
-      </c>
-      <c r="K37" t="s">
-        <v>170</v>
-      </c>
-      <c r="P37" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
-      </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2101,24 +2161,27 @@
         <v>50</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>193</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2127,254 +2190,263 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H41" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P45" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="P47" t="s">
         <v>165</v>
       </c>
-      <c r="P41" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="Q47" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48" t="s">
+        <v>181</v>
+      </c>
+      <c r="P48" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
         <v>112</v>
       </c>
-      <c r="E43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
         <v>113</v>
       </c>
-      <c r="E44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="K52" t="s">
+        <v>182</v>
+      </c>
+      <c r="P52" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
         <v>114</v>
       </c>
-      <c r="E45" t="s">
-        <v>138</v>
-      </c>
-      <c r="P45" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="K53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
         <v>115</v>
       </c>
-      <c r="E46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" t="s">
-        <v>138</v>
-      </c>
-      <c r="P47" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
-      <c r="K48" t="s">
-        <v>144</v>
-      </c>
-      <c r="P48" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
-      <c r="K52" t="s">
-        <v>146</v>
-      </c>
-      <c r="P52" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" t="s">
-        <v>145</v>
-      </c>
-      <c r="K53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>121</v>
-      </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2383,251 +2455,299 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
         <v>89</v>
       </c>
-      <c r="B55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" t="s">
-        <v>138</v>
-      </c>
-      <c r="H57" t="s">
-        <v>167</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E60" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
         <v>126</v>
       </c>
-      <c r="E59" t="s">
-        <v>138</v>
-      </c>
-      <c r="H59" t="s">
-        <v>167</v>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" t="s">
-        <v>138</v>
-      </c>
-      <c r="M62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" t="s">
-        <v>132</v>
-      </c>
       <c r="E64" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" t="s">
         <v>134</v>
       </c>
-      <c r="E66" t="s">
-        <v>145</v>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>190</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" t="s">
+        <v>194</v>
+      </c>
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" t="s">
+        <v>194</v>
+      </c>
+      <c r="O70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" t="s">
+        <v>194</v>
+      </c>
+      <c r="O71" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/ToxRSCat/templates/miate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{2BEDCA75-B862-1A41-82E7-F93BBF58C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5146E3EE-EB34-4DD0-8F4D-CC39C249991D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993FA08-13D8-9C4D-BA95-CE7DF71D2BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="205">
   <si>
     <t>description</t>
   </si>
@@ -673,6 +673,15 @@
   </si>
   <si>
     <t>feed_vendor</t>
+  </si>
+  <si>
+    <t>investigation template version</t>
+  </si>
+  <si>
+    <t>study template version</t>
+  </si>
+  <si>
+    <t>sample template version</t>
   </si>
 </sst>
 </file>
@@ -725,11 +734,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1072,14 +1087,14 @@
       <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="60.5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1125,1628 +1140,1637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="106" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="47" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="15" width="14.125" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="45.375" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="1" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="7" width="10.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="47" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="14.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21" style="3" customWidth="1"/>
+    <col min="17" max="17" width="45.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="N4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="I5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="O5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="I6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="N6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>5178842054</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="I10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>48824</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="E11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="I12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="N13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="E14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="E17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
-        <v>132</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="E18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="E19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:17" ht="272" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="O23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
-        <v>132</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="O29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="O30" t="b">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E31" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E33" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="E36" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="E38" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>50</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>100</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="Q40" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E41" t="s">
-        <v>132</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="E41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="E43" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="E44" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="E45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q45" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="E46" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E47" t="s">
-        <v>132</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="E47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q47" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="Q48" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="I51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="E56" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E57" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="E57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="I57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E58" t="s">
-        <v>132</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="E58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E59" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="E59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="I59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="E60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="E61" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E62" t="s">
-        <v>132</v>
-      </c>
-      <c r="M62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="I66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E69" t="s">
+      <c r="C69" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="O69" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E70" t="s">
+      <c r="C70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="O70" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E71" t="s">
+      <c r="C71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O71" t="b">
+      <c r="O71" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993FA08-13D8-9C4D-BA95-CE7DF71D2BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47A1027-25D3-E249-8E5E-7D49743EDB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="206">
   <si>
     <t>description</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>sample template version</t>
+  </si>
+  <si>
+    <t>Provenance</t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1143,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="106" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2632,7 +2635,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>85</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>85</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>202</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O69" s="3" t="b">
         <v>1</v>
@@ -2751,7 +2754,7 @@
         <v>203</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O70" s="3" t="b">
         <v>1</v>
@@ -2768,7 +2771,7 @@
         <v>204</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O71" s="3" t="b">
         <v>1</v>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47A1027-25D3-E249-8E5E-7D49743EDB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8791A8-A859-4641-9D6F-48D5B1A25214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -1143,11 +1143,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1765,6 +1765,9 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>132</v>
+      </c>
+      <c r="M19" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8791A8-A859-4641-9D6F-48D5B1A25214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9674CE00-E9C3-864C-96F6-9804081682C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -1144,10 +1144,10 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1766,9 +1766,6 @@
       <c r="E19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>84</v>
       </c>
@@ -2638,7 +2635,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>85</v>
       </c>
@@ -2655,7 +2652,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>85</v>
       </c>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9674CE00-E9C3-864C-96F6-9804081682C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC56AF7-0F6F-FE42-962A-CEB24AD39E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="212">
   <si>
     <t>description</t>
   </si>
@@ -685,6 +685,24 @@
   </si>
   <si>
     <t>Provenance</t>
+  </si>
+  <si>
+    <t>Study.study_identifier</t>
+  </si>
+  <si>
+    <t>Sample.study_identifier</t>
+  </si>
+  <si>
+    <t>Study.subject_identifier</t>
+  </si>
+  <si>
+    <t>Sample.subject_identifier</t>
+  </si>
+  <si>
+    <t>Investigation.investigation_identifier</t>
+  </si>
+  <si>
+    <t>Study.investigation_identifier</t>
   </si>
 </sst>
 </file>
@@ -716,15 +734,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -732,12 +756,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -748,6 +781,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,13 +1188,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,37 +1271,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1264,25 +1317,31 @@
         <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>132</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
+        <v>139</v>
+      </c>
+      <c r="O3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="R3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1290,37 +1349,25 @@
         <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N4" s="3" t="b">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1328,17 +1375,14 @@
         <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="I5" s="3" t="b">
         <v>1</v>
       </c>
@@ -1346,22 +1390,22 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="3" t="b">
+        <v>141</v>
+      </c>
+      <c r="N5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>69</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1369,16 +1413,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>132</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="I6" s="3" t="b">
         <v>1</v>
@@ -1387,16 +1431,22 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="O6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1404,16 +1454,16 @@
         <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>132</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>1</v>
@@ -1422,13 +1472,16 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="3">
-        <v>5178842054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1436,14 +1489,17 @@
         <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="I8" s="3" t="b">
         <v>1</v>
       </c>
@@ -1451,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>64</v>
+        <v>41</v>
+      </c>
+      <c r="R8" s="3">
+        <v>5178842054</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -1465,10 +1521,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>132</v>
@@ -1480,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -1494,17 +1550,14 @@
         <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="I10" s="3" t="b">
         <v>1</v>
       </c>
@@ -1512,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="3">
-        <v>48824</v>
+        <v>43</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -1526,14 +1579,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="I11" s="3" t="b">
         <v>1</v>
       </c>
@@ -1541,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="R11" s="3">
+        <v>48824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1555,13 +1611,13 @@
         <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I12" s="3" t="b">
         <v>1</v>
@@ -1569,28 +1625,25 @@
       <c r="J12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>135</v>
@@ -1602,22 +1655,16 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>69</v>
+        <v>173</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1625,13 +1672,13 @@
         <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I14" s="3" t="b">
         <v>1</v>
@@ -1639,11 +1686,20 @@
       <c r="J14" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="K14" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="N14" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="P14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="R14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -1651,25 +1707,28 @@
         <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="I15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="3" t="b">
         <v>1</v>
+      </c>
+      <c r="N15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -1680,14 +1739,17 @@
         <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="I16" s="3" t="b">
         <v>1</v>
       </c>
@@ -1695,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1703,109 +1765,128 @@
         <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="E18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="I18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q18" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="153" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="272" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>84</v>
       </c>
@@ -1813,22 +1894,28 @@
         <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="272" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -1836,25 +1923,22 @@
         <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
@@ -1862,42 +1946,51 @@
         <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3" t="s">
+      <c r="O24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q24" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O24" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
@@ -1905,13 +1998,19 @@
         <v>99</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>97</v>
+        <v>208</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="O25" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -1919,22 +2018,13 @@
         <v>99</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -1942,13 +2032,22 @@
         <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -1956,22 +2055,13 @@
         <v>99</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
@@ -1979,25 +2069,22 @@
         <v>99</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>104</v>
+        <v>158</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>84</v>
       </c>
@@ -2005,25 +2092,25 @@
         <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
@@ -2031,13 +2118,25 @@
         <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>84</v>
       </c>
@@ -2045,10 +2144,10 @@
         <v>99</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2059,13 +2158,13 @@
         <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
@@ -2073,33 +2172,33 @@
         <v>99</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q35" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2110,16 +2209,13 @@
         <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>84</v>
       </c>
@@ -2127,22 +2223,16 @@
         <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2150,10 +2240,19 @@
         <v>91</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2164,25 +2263,10 @@
         <v>91</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>50</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2193,10 +2277,10 @@
         <v>91</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>134</v>
@@ -2205,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>69</v>
@@ -2222,16 +2306,22 @@
         <v>91</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>69</v>
@@ -2242,13 +2332,22 @@
         <v>84</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2259,10 +2358,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2273,7 +2372,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>132</v>
@@ -2287,16 +2386,10 @@
         <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2307,10 +2400,16 @@
         <v>92</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>132</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2321,16 +2420,10 @@
         <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2341,36 +2434,42 @@
         <v>92</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
@@ -2378,19 +2477,13 @@
         <v>110</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
@@ -2398,7 +2491,10 @@
         <v>110</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>134</v>
@@ -2406,14 +2502,8 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="I51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>84</v>
       </c>
@@ -2421,22 +2511,22 @@
         <v>110</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q52" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>84</v>
       </c>
@@ -2444,16 +2534,22 @@
         <v>110</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>84</v>
       </c>
@@ -2461,19 +2557,16 @@
         <v>110</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>84</v>
       </c>
@@ -2481,13 +2574,19 @@
         <v>110</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>84</v>
       </c>
@@ -2495,13 +2594,13 @@
         <v>110</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>84</v>
       </c>
@@ -2509,22 +2608,13 @@
         <v>110</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>84</v>
       </c>
@@ -2532,11 +2622,14 @@
         <v>110</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="H58" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="I58" s="3" t="b">
         <v>1</v>
       </c>
@@ -2544,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>84</v>
       </c>
@@ -2552,56 +2645,85 @@
         <v>110</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="3" t="s">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="I60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+    </row>
+    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>85</v>
       </c>
@@ -2609,33 +2731,39 @@
         <v>88</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>136</v>
+        <v>207</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="I62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>98</v>
+        <v>209</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>85</v>
       </c>
@@ -2643,13 +2771,10 @@
         <v>131</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
@@ -2660,16 +2785,16 @@
         <v>131</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>85</v>
       </c>
@@ -2677,19 +2802,13 @@
         <v>131</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I66" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="K66" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -2700,13 +2819,19 @@
         <v>131</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="I67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -2717,10 +2842,10 @@
         <v>131</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>134</v>
@@ -2728,30 +2853,30 @@
     </row>
     <row r="69" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>202</v>
+        <v>130</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="O69" s="3" t="b">
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>205</v>
@@ -2762,13 +2887,13 @@
     </row>
     <row r="71" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>205</v>
@@ -2777,35 +2902,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="72" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O72" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R6" r:id="rId1" xr:uid="{6730DB56-29A4-4368-838D-F7C90E1BA941}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{D67885DB-07C1-48D6-9182-296C8764ACAA}"/>
-    <hyperlink ref="Q20" r:id="rId3" xr:uid="{62B2D977-4DB4-4ACB-B1F4-86B39E729F12}"/>
-    <hyperlink ref="Q2" r:id="rId4" xr:uid="{3E4ADA5D-25DC-4FCF-9AD6-84FFBF29DD54}"/>
-    <hyperlink ref="Q4" r:id="rId5" xr:uid="{77C6100B-CB8B-45BC-B9F4-81B72C4CDBBE}"/>
-    <hyperlink ref="Q5" r:id="rId6" xr:uid="{983294F6-1794-48BA-A4EE-69E1E5B73B29}"/>
-    <hyperlink ref="Q13" r:id="rId7" xr:uid="{5F4DB769-A8DA-4A96-B09C-E6FF792A6727}"/>
-    <hyperlink ref="Q17" r:id="rId8" xr:uid="{CE8CEF44-F1F7-4EC2-8E60-7E851335A50D}"/>
-    <hyperlink ref="Q18" r:id="rId9" xr:uid="{5537B217-12A2-4369-87D2-C5E2A4AC65D4}"/>
-    <hyperlink ref="Q19" r:id="rId10" xr:uid="{601611FE-DEAE-44CA-B260-AD4FF56D97E4}"/>
-    <hyperlink ref="Q52" r:id="rId11" xr:uid="{ECB42EBD-C556-4586-BBCA-16A58E127BF1}"/>
-    <hyperlink ref="Q22" r:id="rId12" xr:uid="{37B5E50D-20D7-44B7-BF1B-86D0E401725C}"/>
-    <hyperlink ref="Q23" r:id="rId13" xr:uid="{DF0D288C-738F-4EAF-8911-7FEBFED5730E}"/>
-    <hyperlink ref="Q26" r:id="rId14" xr:uid="{E4FCB884-4466-4FA3-98B9-00D3E4577E54}"/>
-    <hyperlink ref="Q30" r:id="rId15" xr:uid="{96FFD262-981A-4D2A-8B92-2223FADC171E}"/>
-    <hyperlink ref="Q29" r:id="rId16" xr:uid="{498AD441-F42E-48F4-9FE0-8E0EDAC27CB2}"/>
-    <hyperlink ref="Q34" r:id="rId17" xr:uid="{3F93E517-A771-4277-B1C4-0D484378F3C6}"/>
-    <hyperlink ref="Q45" r:id="rId18" xr:uid="{5A4F09E9-4852-4FEA-8962-95A99CB5321D}"/>
-    <hyperlink ref="Q48" r:id="rId19" xr:uid="{4C5D9327-68A9-4796-890F-96EEDD7AB960}"/>
-    <hyperlink ref="Q47" r:id="rId20" xr:uid="{D1DF37D3-4D5A-462E-8C75-798FDCCDA9E3}"/>
-    <hyperlink ref="Q39" r:id="rId21" xr:uid="{8752855E-5008-493E-8E83-E2F603B0407D}"/>
-    <hyperlink ref="Q40" r:id="rId22" xr:uid="{6613030B-8CAB-4FB8-AF4D-7A3FC2B4FE5F}"/>
-    <hyperlink ref="Q41" r:id="rId23" xr:uid="{B9400ADF-E07A-407E-8FA2-0F94CB143507}"/>
-    <hyperlink ref="Q37" r:id="rId24" xr:uid="{19AAC4D7-5401-4799-9C07-9F3476E72451}"/>
+    <hyperlink ref="R7" r:id="rId1" xr:uid="{6730DB56-29A4-4368-838D-F7C90E1BA941}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{D67885DB-07C1-48D6-9182-296C8764ACAA}"/>
+    <hyperlink ref="Q21" r:id="rId3" xr:uid="{62B2D977-4DB4-4ACB-B1F4-86B39E729F12}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{3E4ADA5D-25DC-4FCF-9AD6-84FFBF29DD54}"/>
+    <hyperlink ref="Q5" r:id="rId5" xr:uid="{77C6100B-CB8B-45BC-B9F4-81B72C4CDBBE}"/>
+    <hyperlink ref="Q6" r:id="rId6" xr:uid="{983294F6-1794-48BA-A4EE-69E1E5B73B29}"/>
+    <hyperlink ref="Q14" r:id="rId7" xr:uid="{5F4DB769-A8DA-4A96-B09C-E6FF792A6727}"/>
+    <hyperlink ref="Q18" r:id="rId8" xr:uid="{CE8CEF44-F1F7-4EC2-8E60-7E851335A50D}"/>
+    <hyperlink ref="Q20" r:id="rId9" xr:uid="{5537B217-12A2-4369-87D2-C5E2A4AC65D4}"/>
+    <hyperlink ref="Q53" r:id="rId10" xr:uid="{ECB42EBD-C556-4586-BBCA-16A58E127BF1}"/>
+    <hyperlink ref="Q23" r:id="rId11" xr:uid="{37B5E50D-20D7-44B7-BF1B-86D0E401725C}"/>
+    <hyperlink ref="Q24" r:id="rId12" xr:uid="{DF0D288C-738F-4EAF-8911-7FEBFED5730E}"/>
+    <hyperlink ref="Q27" r:id="rId13" xr:uid="{E4FCB884-4466-4FA3-98B9-00D3E4577E54}"/>
+    <hyperlink ref="Q31" r:id="rId14" xr:uid="{96FFD262-981A-4D2A-8B92-2223FADC171E}"/>
+    <hyperlink ref="Q30" r:id="rId15" xr:uid="{498AD441-F42E-48F4-9FE0-8E0EDAC27CB2}"/>
+    <hyperlink ref="Q35" r:id="rId16" xr:uid="{3F93E517-A771-4277-B1C4-0D484378F3C6}"/>
+    <hyperlink ref="Q46" r:id="rId17" xr:uid="{5A4F09E9-4852-4FEA-8962-95A99CB5321D}"/>
+    <hyperlink ref="Q49" r:id="rId18" xr:uid="{4C5D9327-68A9-4796-890F-96EEDD7AB960}"/>
+    <hyperlink ref="Q48" r:id="rId19" xr:uid="{D1DF37D3-4D5A-462E-8C75-798FDCCDA9E3}"/>
+    <hyperlink ref="Q40" r:id="rId20" xr:uid="{8752855E-5008-493E-8E83-E2F603B0407D}"/>
+    <hyperlink ref="Q41" r:id="rId21" xr:uid="{6613030B-8CAB-4FB8-AF4D-7A3FC2B4FE5F}"/>
+    <hyperlink ref="Q42" r:id="rId22" xr:uid="{B9400ADF-E07A-407E-8FA2-0F94CB143507}"/>
+    <hyperlink ref="Q38" r:id="rId23" xr:uid="{19AAC4D7-5401-4799-9C07-9F3476E72451}"/>
+    <hyperlink ref="Q19" r:id="rId24" xr:uid="{74512495-6460-674F-9279-0BBCAF7C1442}"/>
+    <hyperlink ref="Q2" r:id="rId25" xr:uid="{F1376682-1E24-2244-B4D1-56A04CC327D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC56AF7-0F6F-FE42-962A-CEB24AD39E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC95174-EB84-CE44-82F6-D661DA48F999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="214">
   <si>
     <t>description</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>identifiers</t>
-  </si>
-  <si>
-    <t>study_identifier</t>
   </si>
   <si>
     <t>Zacharewski_Superfund</t>
@@ -687,22 +684,31 @@
     <t>Provenance</t>
   </si>
   <si>
-    <t>Study.study_identifier</t>
-  </si>
-  <si>
-    <t>Sample.study_identifier</t>
-  </si>
-  <si>
     <t>Study.subject_identifier</t>
   </si>
   <si>
     <t>Sample.subject_identifier</t>
   </si>
   <si>
-    <t>Investigation.investigation_identifier</t>
-  </si>
-  <si>
-    <t>Study.investigation_identifier</t>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Project.project_identifier</t>
+  </si>
+  <si>
+    <t>project_identifier</t>
+  </si>
+  <si>
+    <t>Study.project_identifier</t>
+  </si>
+  <si>
+    <t>treatment_date</t>
+  </si>
+  <si>
+    <t>diet_date</t>
+  </si>
+  <si>
+    <t>Sample.project_identifier</t>
   </si>
 </sst>
 </file>
@@ -1188,13 +1194,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,21 +1277,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1302,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>69</v>
@@ -1311,7 +1317,7 @@
     </row>
     <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>60</v>
@@ -1323,27 +1329,27 @@
         <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>69</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>60</v>
@@ -1355,13 +1361,13 @@
         <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>69</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="5" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>60</v>
@@ -1381,7 +1387,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="3" t="b">
         <v>1</v>
@@ -1390,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>69</v>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="6" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>60</v>
@@ -1419,10 +1425,10 @@
         <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6" s="3" t="b">
         <v>1</v>
@@ -1431,13 +1437,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>69</v>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>60</v>
@@ -1460,10 +1466,10 @@
         <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>1</v>
@@ -1483,7 +1489,7 @@
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>60</v>
@@ -1495,10 +1501,10 @@
         <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I8" s="3" t="b">
         <v>1</v>
@@ -1515,7 +1521,7 @@
     </row>
     <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>60</v>
@@ -1527,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="3" t="b">
         <v>1</v>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="10" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>60</v>
@@ -1556,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10" s="3" t="b">
         <v>1</v>
@@ -1573,7 +1579,7 @@
     </row>
     <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -1585,10 +1591,10 @@
         <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I11" s="3" t="b">
         <v>1</v>
@@ -1605,7 +1611,7 @@
     </row>
     <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>60</v>
@@ -1617,7 +1623,7 @@
         <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" s="3" t="b">
         <v>1</v>
@@ -1634,7 +1640,7 @@
     </row>
     <row r="13" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>60</v>
@@ -1646,7 +1652,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I13" s="3" t="b">
         <v>1</v>
@@ -1655,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>57</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="14" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>59</v>
@@ -1675,10 +1681,10 @@
         <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14" s="3" t="b">
         <v>1</v>
@@ -1687,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>69</v>
@@ -1702,9 +1708,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>59</v>
@@ -1716,7 +1722,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I15" s="3" t="b">
         <v>1</v>
@@ -1731,9 +1737,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>79</v>
@@ -1745,10 +1751,10 @@
         <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I16" s="3" t="b">
         <v>1</v>
@@ -1757,9 +1763,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>79</v>
@@ -1771,7 +1777,7 @@
         <v>82</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I17" s="3" t="b">
         <v>1</v>
@@ -1781,8 +1787,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>30</v>
+      <c r="A18" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>79</v>
@@ -1794,12 +1800,12 @@
         <v>83</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I18" s="6" t="b">
         <v>1</v>
@@ -1809,185 +1815,187 @@
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>69</v>
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q19" s="11" t="s">
+    <row r="19" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:18" ht="272" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="P21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q22" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="272" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>205</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -1995,107 +2003,113 @@
         <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="L26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P27" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="D28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="3" t="s">
+    <row r="30" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>177</v>
@@ -2104,36 +2118,24 @@
         <v>1</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2141,13 +2143,13 @@
         <v>84</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2155,50 +2157,50 @@
         <v>84</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2206,53 +2208,53 @@
         <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>191</v>
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2260,13 +2262,28 @@
         <v>84</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>50</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2274,7 +2291,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>121</v>
@@ -2283,13 +2300,13 @@
         <v>192</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>167</v>
@@ -2303,22 +2320,16 @@
         <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
+        <v>131</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>168</v>
@@ -2335,19 +2346,13 @@
         <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>123</v>
+        <v>212</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2355,13 +2360,13 @@
         <v>84</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2369,13 +2374,13 @@
         <v>84</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2383,13 +2388,19 @@
         <v>84</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2397,19 +2408,13 @@
         <v>84</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2417,13 +2422,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2431,13 +2442,16 @@
         <v>84</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>165</v>
@@ -2451,64 +2465,67 @@
         <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>125</v>
+        <v>211</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>98</v>
+      <c r="D50" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="I51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>112</v>
@@ -2516,54 +2533,51 @@
       <c r="E52" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P53" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>183</v>
+        <v>132</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2571,7 +2585,7 @@
         <v>84</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>115</v>
@@ -2579,25 +2593,19 @@
       <c r="E55" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>23</v>
-      </c>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2605,13 +2613,22 @@
         <v>84</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2619,16 +2636,13 @@
         <v>84</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="I58" s="3" t="b">
         <v>1</v>
@@ -2637,91 +2651,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="3" t="s">
+    <row r="59" spans="1:18" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I60" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-    </row>
-    <row r="61" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+    </row>
+    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -2731,50 +2748,44 @@
         <v>88</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>98</v>
+        <v>134</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
@@ -2782,30 +2793,36 @@
         <v>85</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="I66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>185</v>
@@ -2816,22 +2833,16 @@
         <v>85</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="D67" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E67" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -2839,7 +2850,7 @@
         <v>85</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>129</v>
@@ -2848,38 +2859,38 @@
         <v>189</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>134</v>
+        <v>204</v>
+      </c>
+      <c r="O69" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>202</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="3" t="b">
         <v>1</v>
@@ -2887,35 +2898,18 @@
     </row>
     <row r="71" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="O72" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2923,32 +2917,31 @@
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1" xr:uid="{6730DB56-29A4-4368-838D-F7C90E1BA941}"/>
     <hyperlink ref="Q4" r:id="rId2" xr:uid="{D67885DB-07C1-48D6-9182-296C8764ACAA}"/>
-    <hyperlink ref="Q21" r:id="rId3" xr:uid="{62B2D977-4DB4-4ACB-B1F4-86B39E729F12}"/>
+    <hyperlink ref="Q19" r:id="rId3" xr:uid="{62B2D977-4DB4-4ACB-B1F4-86B39E729F12}"/>
     <hyperlink ref="Q3" r:id="rId4" xr:uid="{3E4ADA5D-25DC-4FCF-9AD6-84FFBF29DD54}"/>
     <hyperlink ref="Q5" r:id="rId5" xr:uid="{77C6100B-CB8B-45BC-B9F4-81B72C4CDBBE}"/>
     <hyperlink ref="Q6" r:id="rId6" xr:uid="{983294F6-1794-48BA-A4EE-69E1E5B73B29}"/>
     <hyperlink ref="Q14" r:id="rId7" xr:uid="{5F4DB769-A8DA-4A96-B09C-E6FF792A6727}"/>
     <hyperlink ref="Q18" r:id="rId8" xr:uid="{CE8CEF44-F1F7-4EC2-8E60-7E851335A50D}"/>
-    <hyperlink ref="Q20" r:id="rId9" xr:uid="{5537B217-12A2-4369-87D2-C5E2A4AC65D4}"/>
-    <hyperlink ref="Q53" r:id="rId10" xr:uid="{ECB42EBD-C556-4586-BBCA-16A58E127BF1}"/>
-    <hyperlink ref="Q23" r:id="rId11" xr:uid="{37B5E50D-20D7-44B7-BF1B-86D0E401725C}"/>
-    <hyperlink ref="Q24" r:id="rId12" xr:uid="{DF0D288C-738F-4EAF-8911-7FEBFED5730E}"/>
-    <hyperlink ref="Q27" r:id="rId13" xr:uid="{E4FCB884-4466-4FA3-98B9-00D3E4577E54}"/>
-    <hyperlink ref="Q31" r:id="rId14" xr:uid="{96FFD262-981A-4D2A-8B92-2223FADC171E}"/>
-    <hyperlink ref="Q30" r:id="rId15" xr:uid="{498AD441-F42E-48F4-9FE0-8E0EDAC27CB2}"/>
-    <hyperlink ref="Q35" r:id="rId16" xr:uid="{3F93E517-A771-4277-B1C4-0D484378F3C6}"/>
-    <hyperlink ref="Q46" r:id="rId17" xr:uid="{5A4F09E9-4852-4FEA-8962-95A99CB5321D}"/>
-    <hyperlink ref="Q49" r:id="rId18" xr:uid="{4C5D9327-68A9-4796-890F-96EEDD7AB960}"/>
-    <hyperlink ref="Q48" r:id="rId19" xr:uid="{D1DF37D3-4D5A-462E-8C75-798FDCCDA9E3}"/>
-    <hyperlink ref="Q40" r:id="rId20" xr:uid="{8752855E-5008-493E-8E83-E2F603B0407D}"/>
-    <hyperlink ref="Q41" r:id="rId21" xr:uid="{6613030B-8CAB-4FB8-AF4D-7A3FC2B4FE5F}"/>
-    <hyperlink ref="Q42" r:id="rId22" xr:uid="{B9400ADF-E07A-407E-8FA2-0F94CB143507}"/>
-    <hyperlink ref="Q38" r:id="rId23" xr:uid="{19AAC4D7-5401-4799-9C07-9F3476E72451}"/>
-    <hyperlink ref="Q19" r:id="rId24" xr:uid="{74512495-6460-674F-9279-0BBCAF7C1442}"/>
-    <hyperlink ref="Q2" r:id="rId25" xr:uid="{F1376682-1E24-2244-B4D1-56A04CC327D1}"/>
+    <hyperlink ref="Q23" r:id="rId9" xr:uid="{5537B217-12A2-4369-87D2-C5E2A4AC65D4}"/>
+    <hyperlink ref="Q52" r:id="rId10" xr:uid="{ECB42EBD-C556-4586-BBCA-16A58E127BF1}"/>
+    <hyperlink ref="Q21" r:id="rId11" xr:uid="{37B5E50D-20D7-44B7-BF1B-86D0E401725C}"/>
+    <hyperlink ref="Q22" r:id="rId12" xr:uid="{DF0D288C-738F-4EAF-8911-7FEBFED5730E}"/>
+    <hyperlink ref="Q26" r:id="rId13" xr:uid="{E4FCB884-4466-4FA3-98B9-00D3E4577E54}"/>
+    <hyperlink ref="Q30" r:id="rId14" xr:uid="{96FFD262-981A-4D2A-8B92-2223FADC171E}"/>
+    <hyperlink ref="Q29" r:id="rId15" xr:uid="{498AD441-F42E-48F4-9FE0-8E0EDAC27CB2}"/>
+    <hyperlink ref="Q34" r:id="rId16" xr:uid="{3F93E517-A771-4277-B1C4-0D484378F3C6}"/>
+    <hyperlink ref="Q45" r:id="rId17" xr:uid="{5A4F09E9-4852-4FEA-8962-95A99CB5321D}"/>
+    <hyperlink ref="Q48" r:id="rId18" xr:uid="{4C5D9327-68A9-4796-890F-96EEDD7AB960}"/>
+    <hyperlink ref="Q47" r:id="rId19" xr:uid="{D1DF37D3-4D5A-462E-8C75-798FDCCDA9E3}"/>
+    <hyperlink ref="Q39" r:id="rId20" xr:uid="{8752855E-5008-493E-8E83-E2F603B0407D}"/>
+    <hyperlink ref="Q40" r:id="rId21" xr:uid="{6613030B-8CAB-4FB8-AF4D-7A3FC2B4FE5F}"/>
+    <hyperlink ref="Q41" r:id="rId22" xr:uid="{B9400ADF-E07A-407E-8FA2-0F94CB143507}"/>
+    <hyperlink ref="Q37" r:id="rId23" xr:uid="{19AAC4D7-5401-4799-9C07-9F3476E72451}"/>
+    <hyperlink ref="Q2" r:id="rId24" xr:uid="{F1376682-1E24-2244-B4D1-56A04CC327D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC95174-EB84-CE44-82F6-D661DA48F999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F1460-17EF-164C-A56F-41A37B7C6C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="1120" yWindow="520" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -1197,10 +1197,10 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2543,7 +2543,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>84</v>
       </c>

--- a/templates/miate/MIATE_template.xlsx
+++ b/templates/miate/MIATE_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F1460-17EF-164C-A56F-41A37B7C6C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28168D45-329E-1943-AD64-C3C70620E1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="520" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="213">
   <si>
     <t>description</t>
   </si>
@@ -158,9 +158,6 @@
     <t>data_submission_contact_email</t>
   </si>
   <si>
-    <t>Investigation</t>
-  </si>
-  <si>
     <t>data_submission_contact_telephone</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
   </si>
   <si>
     <t>experiment</t>
-  </si>
-  <si>
-    <t>investigation_identifier</t>
   </si>
   <si>
     <t>identifiers</t>
@@ -684,24 +678,12 @@
     <t>Provenance</t>
   </si>
   <si>
-    <t>Study.subject_identifier</t>
-  </si>
-  <si>
     <t>Sample.subject_identifier</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Project.project_identifier</t>
-  </si>
-  <si>
     <t>project_identifier</t>
   </si>
   <si>
-    <t>Study.project_identifier</t>
-  </si>
-  <si>
     <t>treatment_date</t>
   </si>
   <si>
@@ -709,6 +691,21 @@
   </si>
   <si>
     <t>Sample.project_identifier</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Study.study_identifier</t>
+  </si>
+  <si>
+    <t>Subject.study_identifier</t>
+  </si>
+  <si>
+    <t>Subject.subject_identifier</t>
+  </si>
+  <si>
+    <t>study_identifier</t>
   </si>
 </sst>
 </file>
@@ -776,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -803,6 +800,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1197,10 +1201,10 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,19 +1283,19 @@
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1308,86 +1312,86 @@
         <v>1</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>207</v>
+      <c r="A3" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>207</v>
+      <c r="A4" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>207</v>
+      <c r="A5" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" s="3" t="b">
         <v>1</v>
@@ -1396,39 +1400,39 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>207</v>
+      <c r="A6" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I6" s="3" t="b">
         <v>1</v>
@@ -1437,39 +1441,39 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>207</v>
+      <c r="A7" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>1</v>
@@ -1478,334 +1482,334 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="R8" s="3">
         <v>5178842054</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>207</v>
+      <c r="A9" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="R11" s="3">
         <v>48824</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>207</v>
+      <c r="A12" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="R13" s="3" t="s">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>207</v>
+      <c r="A16" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I18" s="6" t="b">
         <v>1</v>
@@ -1815,110 +1819,110 @@
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" ht="153" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="272" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="272" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1926,7 +1930,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -1935,28 +1939,28 @@
         <v>1</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -1970,100 +1974,112 @@
       <c r="O23" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="P23" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O24" s="3" t="b">
-        <v>1</v>
-      </c>
+    <row r="24" spans="1:18" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -2074,204 +2090,204 @@
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -2280,27 +2296,27 @@
         <v>50</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -2309,189 +2325,189 @@
         <v>100</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2499,16 +2515,16 @@
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2522,56 +2538,56 @@
     </row>
     <row r="52" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2582,47 +2598,47 @@
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I57" s="3" t="b">
         <v>1</v>
@@ -2633,16 +2649,16 @@
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I58" s="3" t="b">
         <v>1</v>
@@ -2652,23 +2668,23 @@
       </c>
     </row>
     <row r="59" spans="1:18" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>84</v>
+      <c r="A59" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I59" s="6" t="b">
         <v>1</v>
@@ -2687,17 +2703,17 @@
     </row>
     <row r="60" spans="1:18" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -2719,19 +2735,19 @@
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I61" s="3" t="b">
         <v>1</v>
@@ -2742,81 +2758,81 @@
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I66" s="3" t="b">
         <v>1</v>
@@ -2825,55 +2841,55 @@
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="3" t="b">
         <v>1</v>
@@ -2881,16 +2897,16 @@
     </row>
     <row r="70" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="O70" s="3" t="b">
         <v>1</v>
@@ -2898,16 +2914,16 @@
     </row>
     <row r="71" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O71" s="3" t="b">
         <v>1</v>
@@ -2923,7 +2939,7 @@
     <hyperlink ref="Q6" r:id="rId6" xr:uid="{983294F6-1794-48BA-A4EE-69E1E5B73B29}"/>
     <hyperlink ref="Q14" r:id="rId7" xr:uid="{5F4DB769-A8DA-4A96-B09C-E6FF792A6727}"/>
     <hyperlink ref="Q18" r:id="rId8" xr:uid="{CE8CEF44-F1F7-4EC2-8E60-7E851335A50D}"/>
-    <hyperlink ref="Q23" r:id="rId9" xr:uid="{5537B217-12A2-4369-87D2-C5E2A4AC65D4}"/>
+    <hyperlink ref="Q24" r:id="rId9" xr:uid="{5537B217-12A2-4369-87D2-C5E2A4AC65D4}"/>
     <hyperlink ref="Q52" r:id="rId10" xr:uid="{ECB42EBD-C556-4586-BBCA-16A58E127BF1}"/>
     <hyperlink ref="Q21" r:id="rId11" xr:uid="{37B5E50D-20D7-44B7-BF1B-86D0E401725C}"/>
     <hyperlink ref="Q22" r:id="rId12" xr:uid="{DF0D288C-738F-4EAF-8911-7FEBFED5730E}"/>
